--- a/exceluploader-addon/src/test/resources/field_upload.xlsx
+++ b/exceluploader-addon/src/test/resources/field_upload.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\basakpie\vaadin-exceluploader-addon\exceluploader-demo\src\main\webapp\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\git\vaadin-exceluploader-addon\exceluploader-addon\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +93,74 @@
   </si>
   <si>
     <t>10_xlsx@email.com</t>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subtitle1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subtitle2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_option_name_xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_option_name_xlsx</t>
+  </si>
+  <si>
+    <t>3_option_name_xlsx</t>
+  </si>
+  <si>
+    <t>5_option_name_xlsx</t>
+  </si>
+  <si>
+    <t>6_option_name_xlsx</t>
+  </si>
+  <si>
+    <t>7_option_name_xlsx</t>
+  </si>
+  <si>
+    <t>8_option_name_xlsx</t>
+  </si>
+  <si>
+    <t>9_option_name_xlsx</t>
+  </si>
+  <si>
+    <t>10_option_name_xlsx</t>
+  </si>
+  <si>
+    <t>1_option_xlsx@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_option_xlsx@email.com</t>
+  </si>
+  <si>
+    <t>3_option_xlsx@email.com</t>
+  </si>
+  <si>
+    <t>4_option_xlsx@email.com</t>
+  </si>
+  <si>
+    <t>5_option_xlsx@email.com</t>
+  </si>
+  <si>
+    <t>6_option_xlsx@email.com</t>
+  </si>
+  <si>
+    <t>8_option_xlsx@email.com</t>
+  </si>
+  <si>
+    <t>9_option_xlsx@email.com</t>
+  </si>
+  <si>
+    <t>10_option_xlsx@email.com</t>
   </si>
 </sst>
 </file>
@@ -137,9 +206,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -553,4 +628,160 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>